--- a/7th week/Binh/Binh_BlackBox_PhoneManagement.xlsx
+++ b/7th week/Binh/Binh_BlackBox_PhoneManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7320" tabRatio="821" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7320" tabRatio="821" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="147">
   <si>
     <t>Module Code</t>
   </si>
@@ -378,12 +378,6 @@
   </si>
   <si>
     <t>SheetDeliveryDetails</t>
-  </si>
-  <si>
-    <t>Màn hình sẽ hiện ra như sau</t>
-  </si>
-  <si>
-    <t>Màn hình gồm các label, text box, dropdown list  như sau</t>
   </si>
   <si>
     <t xml:space="preserve">PhoneManagement </t>
@@ -690,6 +684,9 @@
   </si>
   <si>
     <t>Display the PhoneManagement_Order form, all the function can excute</t>
+  </si>
+  <si>
+    <t>The screen will look like this</t>
   </si>
 </sst>
 </file>
@@ -2515,7 +2512,7 @@
       </c>
       <c r="C3" s="99"/>
       <c r="D3" s="100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="100"/>
       <c r="F3" s="100"/>
@@ -2538,7 +2535,7 @@
       </c>
       <c r="C5" s="101"/>
       <c r="D5" s="102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
@@ -2579,16 +2576,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="88" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="13.5">
@@ -2596,16 +2593,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="90" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="90" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="13.5">
@@ -2613,16 +2610,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -2630,16 +2627,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -2647,16 +2644,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -2750,9 +2747,9 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:IV65536"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2786,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -2804,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -2925,7 +2922,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -2940,16 +2937,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>65</v>
-      </c>
       <c r="D10" s="94" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -2961,16 +2958,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="94" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -2982,16 +2979,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -3003,16 +3000,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -3024,16 +3021,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -3134,8 +3131,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D10" location="'PhoneManagement form'!A1" display="Màn hình gồm các label, text box, dropdown list  như sau"/>
-    <hyperlink ref="D11" location="'PhoneManagement_Import form'!A1" display="Màn hình sẽ hiện ra như sau"/>
+    <hyperlink ref="D10" location="'PhoneManagement form'!A1" display="The screen will look like this"/>
+    <hyperlink ref="D11" location="'PhoneManagement_Import form'!A1" display="The screen will look like this"/>
     <hyperlink ref="D12" location="'PhoneManagement_Export form'!A1" display="Màn hình sẽ hiện ra như sau"/>
     <hyperlink ref="D13" location="'PhoneManagement_Edit form'!A1" display="Màn hình sẽ hiện ra như sau"/>
     <hyperlink ref="D14" location="'PhoneManagement_Order form'!A1" display="Màn hình sẽ hiện ra như sau"/>
@@ -3155,7 +3152,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3189,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -3207,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -3328,7 +3325,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -3343,16 +3340,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3364,16 +3361,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -3385,16 +3382,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -3406,16 +3403,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -3427,16 +3424,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -3448,16 +3445,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -3469,16 +3466,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>94</v>
-      </c>
       <c r="E16" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -3490,16 +3487,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>97</v>
-      </c>
       <c r="E17" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -3596,7 +3593,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D10" location="'PhoneManagement_Import form'!A1" display="Màn hình gồm các label, text box, dropdown list  như sau"/>
+    <hyperlink ref="D10" location="'PhoneManagement_Import form'!A1" display="The screen will look like this"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3609,7 +3606,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3643,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -3661,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -3782,7 +3779,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -3797,16 +3794,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3818,16 +3815,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -3839,16 +3836,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -3860,16 +3857,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -3881,16 +3878,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -3902,16 +3899,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>119</v>
-      </c>
       <c r="E15" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -3923,16 +3920,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -3944,16 +3941,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -3965,16 +3962,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
@@ -4081,7 +4078,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D10" location="'PhoneManagement_Export form'!A1" display="Màn hình gồm các label, text box, dropdown list  như sau"/>
+    <hyperlink ref="D10" location="'PhoneManagement_Export form'!A1" display="The screen will look like this"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4092,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4127,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -4145,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -4266,7 +4263,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -4281,16 +4278,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>125</v>
-      </c>
       <c r="D10" s="94" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -4302,16 +4299,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -4323,16 +4320,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -4344,16 +4341,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -4365,16 +4362,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -4386,16 +4383,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -4407,16 +4404,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>97</v>
-      </c>
       <c r="E16" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -4538,7 +4535,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D10" location="'PhoneManagement_Edit form'!A1" display="Màn hình gồm các label, text box, dropdown list  như sau"/>
+    <hyperlink ref="D10" location="'PhoneManagement_Edit form'!A1" display="The screen will look like this"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4549,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4584,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -4602,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -4723,7 +4720,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -4738,16 +4735,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>134</v>
-      </c>
       <c r="D10" s="94" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -4759,16 +4756,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -4780,16 +4777,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -4801,16 +4798,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -4822,16 +4819,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -4843,16 +4840,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>139</v>
-      </c>
       <c r="E15" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -4864,16 +4861,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>94</v>
-      </c>
       <c r="E16" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -4885,16 +4882,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>97</v>
-      </c>
       <c r="E17" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -4991,7 +4988,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D10" location="'PhoneManagement_Order form'!A1" display="Màn hình gồm các label, text box, dropdown list  như sau"/>
+    <hyperlink ref="D10" location="'PhoneManagement_Order form'!A1" display="The screen will look like this"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5017,7 +5014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
